--- a/ProbableCasesOverTimeByCounty/2021-01-26.xlsx
+++ b/ProbableCasesOverTimeByCounty/2021-01-26.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="344">
   <si>
-    <t>COVID-19 Probable Cases by County, 11/1/2020 - 01/25/21 at 9:30 AM CST</t>
+    <t>COVID-19 Probable Cases by County, 11/1/2020 - 01/26/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Probable 2021-01-25</t>
+  </si>
+  <si>
+    <t>Probable 2021-01-26</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1243,6 +1246,7 @@
     <col min="85" max="85" width="12.0" customWidth="true"/>
     <col min="86" max="86" width="12.0" customWidth="true"/>
     <col min="87" max="87" width="12.0" customWidth="true"/>
+    <col min="88" max="88" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1517,10 +1521,13 @@
       <c r="CI3" t="s" s="10">
         <v>88</v>
       </c>
+      <c r="CJ3" t="s" s="10">
+        <v>89</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" t="n">
         <v>343.0</v>
@@ -1778,12 +1785,15 @@
         <v>1137.0</v>
       </c>
       <c r="CI4" t="n">
+        <v>1137.0</v>
+      </c>
+      <c r="CJ4" t="n">
         <v>1137.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2041,12 +2051,15 @@
         <v>0.0</v>
       </c>
       <c r="CI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" t="n">
         <v>605.0</v>
@@ -2304,12 +2317,15 @@
         <v>2688.0</v>
       </c>
       <c r="CI6" t="n">
+        <v>2688.0</v>
+      </c>
+      <c r="CJ6" t="n">
         <v>2688.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B7" t="n">
         <v>17.0</v>
@@ -2568,11 +2584,14 @@
       </c>
       <c r="CI7" t="n">
         <v>240.0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="n">
         <v>27.0</v>
@@ -2831,11 +2850,14 @@
       </c>
       <c r="CI8" t="n">
         <v>88.0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -3093,12 +3115,15 @@
         <v>38.0</v>
       </c>
       <c r="CI9" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CJ9" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B10" t="n">
         <v>223.0</v>
@@ -3357,11 +3382,14 @@
       </c>
       <c r="CI10" t="n">
         <v>926.0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>930.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" t="n">
         <v>44.0</v>
@@ -3620,11 +3648,14 @@
       </c>
       <c r="CI11" t="n">
         <v>189.0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>190.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" t="n">
         <v>48.0</v>
@@ -3883,11 +3914,14 @@
       </c>
       <c r="CI12" t="n">
         <v>198.0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" t="n">
         <v>22.0</v>
@@ -4145,12 +4179,15 @@
         <v>194.0</v>
       </c>
       <c r="CI13" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="CJ13" t="n">
         <v>194.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" t="n">
         <v>339.0</v>
@@ -4409,11 +4446,14 @@
       </c>
       <c r="CI14" t="n">
         <v>1193.0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>1221.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B15" t="n">
         <v>60.0</v>
@@ -4671,12 +4711,15 @@
         <v>172.0</v>
       </c>
       <c r="CI15" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="CJ15" t="n">
         <v>172.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" t="n">
         <v>28.0</v>
@@ -4935,11 +4978,14 @@
       </c>
       <c r="CI16" t="n">
         <v>393.0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>397.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5197,12 +5243,15 @@
         <v>0.0</v>
       </c>
       <c r="CI17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B18" t="n">
         <v>12314.0</v>
@@ -5461,11 +5510,14 @@
       </c>
       <c r="CI18" t="n">
         <v>26405.0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>26460.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" t="n">
         <v>17.0</v>
@@ -5723,12 +5775,15 @@
         <v>55.0</v>
       </c>
       <c r="CI19" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CJ19" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
@@ -5986,12 +6041,15 @@
         <v>6.0</v>
       </c>
       <c r="CI20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CJ20" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B21" t="n">
         <v>39.0</v>
@@ -6249,12 +6307,15 @@
         <v>189.0</v>
       </c>
       <c r="CI21" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="CJ21" t="n">
         <v>189.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" t="n">
         <v>457.0</v>
@@ -6513,11 +6574,14 @@
       </c>
       <c r="CI22" t="n">
         <v>1447.0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>1478.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B23" t="n">
         <v>187.0</v>
@@ -6776,11 +6840,14 @@
       </c>
       <c r="CI23" t="n">
         <v>3241.0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>3346.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B24" t="n">
         <v>1120.0</v>
@@ -7039,11 +7106,14 @@
       </c>
       <c r="CI24" t="n">
         <v>2874.0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>2985.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B25" t="n">
         <v>10.0</v>
@@ -7302,11 +7372,14 @@
       </c>
       <c r="CI25" t="n">
         <v>40.0</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B26" t="n">
         <v>7.0</v>
@@ -7564,12 +7637,15 @@
         <v>54.0</v>
       </c>
       <c r="CI26" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CJ26" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B27" t="n">
         <v>19.0</v>
@@ -7827,12 +7903,15 @@
         <v>102.0</v>
       </c>
       <c r="CI27" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="CJ27" t="n">
         <v>102.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B28" t="n">
         <v>350.0</v>
@@ -8091,11 +8170,14 @@
       </c>
       <c r="CI28" t="n">
         <v>1868.0</v>
+      </c>
+      <c r="CJ28" t="n">
+        <v>1921.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B29" t="n">
         <v>52.0</v>
@@ -8354,11 +8436,14 @@
       </c>
       <c r="CI29" t="n">
         <v>190.0</v>
+      </c>
+      <c r="CJ29" t="n">
+        <v>192.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B30" t="n">
         <v>39.0</v>
@@ -8616,12 +8701,15 @@
         <v>193.0</v>
       </c>
       <c r="CI30" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="CJ30" t="n">
         <v>193.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B31" t="n">
         <v>51.0</v>
@@ -8880,11 +8968,14 @@
       </c>
       <c r="CI31" t="n">
         <v>183.0</v>
+      </c>
+      <c r="CJ31" t="n">
+        <v>185.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B32" t="n">
         <v>14.0</v>
@@ -9143,11 +9234,14 @@
       </c>
       <c r="CI32" t="n">
         <v>139.0</v>
+      </c>
+      <c r="CJ32" t="n">
+        <v>142.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B33" t="n">
         <v>89.0</v>
@@ -9406,11 +9500,14 @@
       </c>
       <c r="CI33" t="n">
         <v>480.0</v>
+      </c>
+      <c r="CJ33" t="n">
+        <v>488.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -9668,12 +9765,15 @@
         <v>0.0</v>
       </c>
       <c r="CI34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B35" t="n">
         <v>74.0</v>
@@ -9932,11 +10032,14 @@
       </c>
       <c r="CI35" t="n">
         <v>305.0</v>
+      </c>
+      <c r="CJ35" t="n">
+        <v>306.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B36" t="n">
         <v>16.0</v>
@@ -10194,12 +10297,15 @@
         <v>136.0</v>
       </c>
       <c r="CI36" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="CJ36" t="n">
         <v>136.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B37" t="n">
         <v>246.0</v>
@@ -10458,11 +10564,14 @@
       </c>
       <c r="CI37" t="n">
         <v>522.0</v>
+      </c>
+      <c r="CJ37" t="n">
+        <v>527.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B38" t="n">
         <v>52.0</v>
@@ -10720,12 +10829,15 @@
         <v>241.0</v>
       </c>
       <c r="CI38" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="CJ38" t="n">
         <v>241.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -10983,12 +11095,15 @@
         <v>0.0</v>
       </c>
       <c r="CI39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B40" t="n">
         <v>512.0</v>
@@ -11247,11 +11362,14 @@
       </c>
       <c r="CI40" t="n">
         <v>1507.0</v>
+      </c>
+      <c r="CJ40" t="n">
+        <v>1545.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B41" t="n">
         <v>22.0</v>
@@ -11509,12 +11627,15 @@
         <v>17.0</v>
       </c>
       <c r="CI41" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CJ41" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B42" t="n">
         <v>7.0</v>
@@ -11772,12 +11893,15 @@
         <v>65.0</v>
       </c>
       <c r="CI42" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="CJ42" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B43" t="n">
         <v>7.0</v>
@@ -12035,12 +12159,15 @@
         <v>16.0</v>
       </c>
       <c r="CI43" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CJ43" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B44" t="n">
         <v>41.0</v>
@@ -12299,11 +12426,14 @@
       </c>
       <c r="CI44" t="n">
         <v>203.0</v>
+      </c>
+      <c r="CJ44" t="n">
+        <v>224.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B45" t="n">
         <v>27.0</v>
@@ -12561,12 +12691,15 @@
         <v>171.0</v>
       </c>
       <c r="CI45" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="CJ45" t="n">
         <v>171.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B46" t="n">
         <v>535.0</v>
@@ -12825,11 +12958,14 @@
       </c>
       <c r="CI46" t="n">
         <v>9405.0</v>
+      </c>
+      <c r="CJ46" t="n">
+        <v>9699.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B47" t="n">
         <v>2.0</v>
@@ -13087,12 +13223,15 @@
         <v>69.0</v>
       </c>
       <c r="CI47" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CJ47" t="n">
         <v>69.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -13350,12 +13489,15 @@
         <v>180.0</v>
       </c>
       <c r="CI48" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="CJ48" t="n">
         <v>180.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B49" t="n">
         <v>912.0</v>
@@ -13614,11 +13756,14 @@
       </c>
       <c r="CI49" t="n">
         <v>3419.0</v>
+      </c>
+      <c r="CJ49" t="n">
+        <v>3494.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B50" t="n">
         <v>18.0</v>
@@ -13877,11 +14022,14 @@
       </c>
       <c r="CI50" t="n">
         <v>204.0</v>
+      </c>
+      <c r="CJ50" t="n">
+        <v>205.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B51" t="n">
         <v>18.0</v>
@@ -14140,11 +14288,14 @@
       </c>
       <c r="CI51" t="n">
         <v>106.0</v>
+      </c>
+      <c r="CJ51" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B52" t="n">
         <v>99.0</v>
@@ -14403,11 +14554,14 @@
       </c>
       <c r="CI52" t="n">
         <v>349.0</v>
+      </c>
+      <c r="CJ52" t="n">
+        <v>352.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B53" t="n">
         <v>34.0</v>
@@ -14665,12 +14819,15 @@
         <v>130.0</v>
       </c>
       <c r="CI53" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="CJ53" t="n">
         <v>130.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B54" t="n">
         <v>23.0</v>
@@ -14928,12 +15085,15 @@
         <v>45.0</v>
       </c>
       <c r="CI54" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CJ54" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B55" t="n">
         <v>117.0</v>
@@ -15192,11 +15352,14 @@
       </c>
       <c r="CI55" t="n">
         <v>309.0</v>
+      </c>
+      <c r="CJ55" t="n">
+        <v>295.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B56" t="n">
         <v>48.0</v>
@@ -15455,11 +15618,14 @@
       </c>
       <c r="CI56" t="n">
         <v>269.0</v>
+      </c>
+      <c r="CJ56" t="n">
+        <v>279.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B57" t="n">
         <v>50.0</v>
@@ -15718,11 +15884,14 @@
       </c>
       <c r="CI57" t="n">
         <v>137.0</v>
+      </c>
+      <c r="CJ57" t="n">
+        <v>140.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B58" t="n">
         <v>10.0</v>
@@ -15981,11 +16150,14 @@
       </c>
       <c r="CI58" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CJ58" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B59" t="n">
         <v>9.0</v>
@@ -16243,12 +16415,15 @@
         <v>36.0</v>
       </c>
       <c r="CI59" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CJ59" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B60" t="n">
         <v>5948.0</v>
@@ -16507,11 +16682,14 @@
       </c>
       <c r="CI60" t="n">
         <v>28781.0</v>
+      </c>
+      <c r="CJ60" t="n">
+        <v>29003.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -16769,12 +16947,15 @@
         <v>0.0</v>
       </c>
       <c r="CI61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B62" t="n">
         <v>228.0</v>
@@ -17033,11 +17214,14 @@
       </c>
       <c r="CI62" t="n">
         <v>594.0</v>
+      </c>
+      <c r="CJ62" t="n">
+        <v>603.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B63" t="n">
         <v>22.0</v>
@@ -17296,11 +17480,14 @@
       </c>
       <c r="CI63" t="n">
         <v>103.0</v>
+      </c>
+      <c r="CJ63" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B64" t="n">
         <v>2000.0</v>
@@ -17559,11 +17746,14 @@
       </c>
       <c r="CI64" t="n">
         <v>9839.0</v>
+      </c>
+      <c r="CJ64" t="n">
+        <v>10092.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -17821,12 +18011,15 @@
         <v>0.0</v>
       </c>
       <c r="CI65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B66" t="n">
         <v>16.0</v>
@@ -18084,12 +18277,15 @@
         <v>46.0</v>
       </c>
       <c r="CI66" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CJ66" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B67" t="n">
         <v>5.0</v>
@@ -18348,11 +18544,14 @@
       </c>
       <c r="CI67" t="n">
         <v>89.0</v>
+      </c>
+      <c r="CJ67" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B68" t="n">
         <v>24.0</v>
@@ -18611,11 +18810,14 @@
       </c>
       <c r="CI68" t="n">
         <v>158.0</v>
+      </c>
+      <c r="CJ68" t="n">
+        <v>159.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B69" t="n">
         <v>11.0</v>
@@ -18874,11 +19076,14 @@
       </c>
       <c r="CI69" t="n">
         <v>93.0</v>
+      </c>
+      <c r="CJ69" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B70" t="n">
         <v>96.0</v>
@@ -19136,12 +19341,15 @@
         <v>281.0</v>
       </c>
       <c r="CI70" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="CJ70" t="n">
         <v>281.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B71" t="n">
         <v>2566.0</v>
@@ -19400,11 +19608,14 @@
       </c>
       <c r="CI71" t="n">
         <v>6333.0</v>
+      </c>
+      <c r="CJ71" t="n">
+        <v>6418.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -19662,12 +19873,15 @@
         <v>31.0</v>
       </c>
       <c r="CI72" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CJ72" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B73" t="n">
         <v>533.0</v>
@@ -19926,11 +20140,14 @@
       </c>
       <c r="CI73" t="n">
         <v>2100.0</v>
+      </c>
+      <c r="CJ73" t="n">
+        <v>2153.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -20188,12 +20405,15 @@
         <v>0.0</v>
       </c>
       <c r="CI74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B75" t="n">
         <v>383.0</v>
@@ -20452,11 +20672,14 @@
       </c>
       <c r="CI75" t="n">
         <v>1147.0</v>
+      </c>
+      <c r="CJ75" t="n">
+        <v>1163.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B76" t="n">
         <v>23.0</v>
@@ -20714,12 +20937,15 @@
         <v>66.0</v>
       </c>
       <c r="CI76" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="CJ76" t="n">
         <v>66.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B77" t="n">
         <v>41.0</v>
@@ -20978,11 +21204,14 @@
       </c>
       <c r="CI77" t="n">
         <v>431.0</v>
+      </c>
+      <c r="CJ77" t="n">
+        <v>454.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B78" t="n">
         <v>172.0</v>
@@ -21241,11 +21470,14 @@
       </c>
       <c r="CI78" t="n">
         <v>673.0</v>
+      </c>
+      <c r="CJ78" t="n">
+        <v>679.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -21503,12 +21735,15 @@
         <v>0.0</v>
       </c>
       <c r="CI79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B80" t="n">
         <v>85.0</v>
@@ -21767,11 +22002,14 @@
       </c>
       <c r="CI80" t="n">
         <v>381.0</v>
+      </c>
+      <c r="CJ80" t="n">
+        <v>386.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -22029,12 +22267,15 @@
         <v>31.0</v>
       </c>
       <c r="CI81" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CJ81" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B82" t="n">
         <v>681.0</v>
@@ -22292,12 +22533,15 @@
         <v>5433.0</v>
       </c>
       <c r="CI82" t="n">
+        <v>5433.0</v>
+      </c>
+      <c r="CJ82" t="n">
         <v>5433.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B83" t="n">
         <v>59.0</v>
@@ -22555,12 +22799,15 @@
         <v>174.0</v>
       </c>
       <c r="CI83" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="CJ83" t="n">
         <v>174.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B84" t="n">
         <v>81.0</v>
@@ -22818,12 +23065,15 @@
         <v>322.0</v>
       </c>
       <c r="CI84" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="CJ84" t="n">
         <v>324.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B85" t="n">
         <v>38.0</v>
@@ -23082,11 +23332,14 @@
       </c>
       <c r="CI85" t="n">
         <v>403.0</v>
+      </c>
+      <c r="CJ85" t="n">
+        <v>437.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -23344,12 +23597,15 @@
         <v>0.0</v>
       </c>
       <c r="CI86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B87" t="n">
         <v>508.0</v>
@@ -23608,11 +23864,14 @@
       </c>
       <c r="CI87" t="n">
         <v>3531.0</v>
+      </c>
+      <c r="CJ87" t="n">
+        <v>3622.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B88" t="n">
         <v>26.0</v>
@@ -23871,11 +24130,14 @@
       </c>
       <c r="CI88" t="n">
         <v>91.0</v>
+      </c>
+      <c r="CJ88" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B89" t="n">
         <v>25.0</v>
@@ -24134,11 +24396,14 @@
       </c>
       <c r="CI89" t="n">
         <v>536.0</v>
+      </c>
+      <c r="CJ89" t="n">
+        <v>538.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B90" t="n">
         <v>19.0</v>
@@ -24397,11 +24662,14 @@
       </c>
       <c r="CI90" t="n">
         <v>53.0</v>
+      </c>
+      <c r="CJ90" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B91" t="n">
         <v>46.0</v>
@@ -24659,12 +24927,15 @@
         <v>79.0</v>
       </c>
       <c r="CI91" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="CJ91" t="n">
         <v>91.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B92" t="n">
         <v>36.0</v>
@@ -24923,11 +25194,14 @@
       </c>
       <c r="CI92" t="n">
         <v>172.0</v>
+      </c>
+      <c r="CJ92" t="n">
+        <v>173.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B93" t="n">
         <v>34.0</v>
@@ -25186,11 +25460,14 @@
       </c>
       <c r="CI93" t="n">
         <v>251.0</v>
+      </c>
+      <c r="CJ93" t="n">
+        <v>253.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -25448,12 +25725,15 @@
         <v>0.0</v>
       </c>
       <c r="CI94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B95" t="n">
         <v>919.0</v>
@@ -25711,12 +25991,15 @@
         <v>3941.0</v>
       </c>
       <c r="CI95" t="n">
+        <v>3941.0</v>
+      </c>
+      <c r="CJ95" t="n">
         <v>3941.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B96" t="n">
         <v>50.0</v>
@@ -25975,11 +26258,14 @@
       </c>
       <c r="CI96" t="n">
         <v>215.0</v>
+      </c>
+      <c r="CJ96" t="n">
+        <v>216.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B97" t="n">
         <v>387.0</v>
@@ -26238,11 +26524,14 @@
       </c>
       <c r="CI97" t="n">
         <v>1896.0</v>
+      </c>
+      <c r="CJ97" t="n">
+        <v>1955.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -26500,12 +26789,15 @@
         <v>0.0</v>
       </c>
       <c r="CI98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B99" t="n">
         <v>9.0</v>
@@ -26764,11 +27056,14 @@
       </c>
       <c r="CI99" t="n">
         <v>79.0</v>
+      </c>
+      <c r="CJ99" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B100" t="n">
         <v>15.0</v>
@@ -27027,11 +27322,14 @@
       </c>
       <c r="CI100" t="n">
         <v>39.0</v>
+      </c>
+      <c r="CJ100" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B101" t="n">
         <v>61.0</v>
@@ -27290,11 +27588,14 @@
       </c>
       <c r="CI101" t="n">
         <v>362.0</v>
+      </c>
+      <c r="CJ101" t="n">
+        <v>372.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B102" t="n">
         <v>25.0</v>
@@ -27552,12 +27853,15 @@
         <v>54.0</v>
       </c>
       <c r="CI102" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CJ102" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B103" t="n">
         <v>505.0</v>
@@ -27816,11 +28120,14 @@
       </c>
       <c r="CI103" t="n">
         <v>1973.0</v>
+      </c>
+      <c r="CJ103" t="n">
+        <v>1995.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -28078,12 +28385,15 @@
         <v>0.0</v>
       </c>
       <c r="CI104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B105" t="n">
         <v>289.0</v>
@@ -28342,11 +28652,14 @@
       </c>
       <c r="CI105" t="n">
         <v>1777.0</v>
+      </c>
+      <c r="CJ105" t="n">
+        <v>1801.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B106" t="n">
         <v>4.0</v>
@@ -28604,12 +28917,15 @@
         <v>26.0</v>
       </c>
       <c r="CI106" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CJ106" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B107" t="n">
         <v>30.0</v>
@@ -28868,11 +29184,14 @@
       </c>
       <c r="CI107" t="n">
         <v>207.0</v>
+      </c>
+      <c r="CJ107" t="n">
+        <v>209.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B108" t="n">
         <v>743.0</v>
@@ -29131,11 +29450,14 @@
       </c>
       <c r="CI108" t="n">
         <v>1620.0</v>
+      </c>
+      <c r="CJ108" t="n">
+        <v>1657.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B109" t="n">
         <v>5.0</v>
@@ -29394,11 +29716,14 @@
       </c>
       <c r="CI109" t="n">
         <v>40.0</v>
+      </c>
+      <c r="CJ109" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B110" t="n">
         <v>392.0</v>
@@ -29656,12 +29981,15 @@
         <v>1489.0</v>
       </c>
       <c r="CI110" t="n">
+        <v>1489.0</v>
+      </c>
+      <c r="CJ110" t="n">
         <v>1489.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -29920,11 +30248,14 @@
       </c>
       <c r="CI111" t="n">
         <v>17665.0</v>
+      </c>
+      <c r="CJ111" t="n">
+        <v>18035.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B112" t="n">
         <v>90.0</v>
@@ -30183,11 +30514,14 @@
       </c>
       <c r="CI112" t="n">
         <v>453.0</v>
+      </c>
+      <c r="CJ112" t="n">
+        <v>454.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B113" t="n">
         <v>77.0</v>
@@ -30446,11 +30780,14 @@
       </c>
       <c r="CI113" t="n">
         <v>216.0</v>
+      </c>
+      <c r="CJ113" t="n">
+        <v>217.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B114" t="n">
         <v>235.0</v>
@@ -30709,11 +31046,14 @@
       </c>
       <c r="CI114" t="n">
         <v>1811.0</v>
+      </c>
+      <c r="CJ114" t="n">
+        <v>1849.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B115" t="n">
         <v>475.0</v>
@@ -30972,11 +31312,14 @@
       </c>
       <c r="CI115" t="n">
         <v>1240.0</v>
+      </c>
+      <c r="CJ115" t="n">
+        <v>1243.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B116" t="n">
         <v>175.0</v>
@@ -31235,11 +31578,14 @@
       </c>
       <c r="CI116" t="n">
         <v>622.0</v>
+      </c>
+      <c r="CJ116" t="n">
+        <v>621.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B117" t="n">
         <v>709.0</v>
@@ -31498,11 +31844,14 @@
       </c>
       <c r="CI117" t="n">
         <v>1546.0</v>
+      </c>
+      <c r="CJ117" t="n">
+        <v>1467.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B118" t="n">
         <v>9.0</v>
@@ -31761,11 +32110,14 @@
       </c>
       <c r="CI118" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CJ118" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -32023,12 +32375,15 @@
         <v>0.0</v>
       </c>
       <c r="CI119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B120" t="n">
         <v>98.0</v>
@@ -32287,11 +32642,14 @@
       </c>
       <c r="CI120" t="n">
         <v>400.0</v>
+      </c>
+      <c r="CJ120" t="n">
+        <v>416.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B121" t="n">
         <v>12.0</v>
@@ -32550,11 +32908,14 @@
       </c>
       <c r="CI121" t="n">
         <v>48.0</v>
+      </c>
+      <c r="CJ121" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B122" t="n">
         <v>11.0</v>
@@ -32813,11 +33174,14 @@
       </c>
       <c r="CI122" t="n">
         <v>64.0</v>
+      </c>
+      <c r="CJ122" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
@@ -33075,12 +33439,15 @@
         <v>117.0</v>
       </c>
       <c r="CI123" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="CJ123" t="n">
         <v>117.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B124" t="n">
         <v>357.0</v>
@@ -33338,12 +33705,15 @@
         <v>1224.0</v>
       </c>
       <c r="CI124" t="n">
+        <v>1224.0</v>
+      </c>
+      <c r="CJ124" t="n">
         <v>1224.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B125" t="n">
         <v>4.0</v>
@@ -33602,11 +33972,14 @@
       </c>
       <c r="CI125" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CJ125" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -33864,12 +34237,15 @@
         <v>0.0</v>
       </c>
       <c r="CI126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B127" t="n">
         <v>2.0</v>
@@ -34127,12 +34503,15 @@
         <v>24.0</v>
       </c>
       <c r="CI127" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CJ127" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B128" t="n">
         <v>50.0</v>
@@ -34391,11 +34770,14 @@
       </c>
       <c r="CI128" t="n">
         <v>449.0</v>
+      </c>
+      <c r="CJ128" t="n">
+        <v>459.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B129" t="n">
         <v>353.0</v>
@@ -34654,11 +35036,14 @@
       </c>
       <c r="CI129" t="n">
         <v>1755.0</v>
+      </c>
+      <c r="CJ129" t="n">
+        <v>1789.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B130" t="n">
         <v>121.0</v>
@@ -34917,11 +35302,14 @@
       </c>
       <c r="CI130" t="n">
         <v>591.0</v>
+      </c>
+      <c r="CJ130" t="n">
+        <v>603.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B131" t="n">
         <v>25.0</v>
@@ -35179,12 +35567,15 @@
         <v>80.0</v>
       </c>
       <c r="CI131" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="CJ131" t="n">
         <v>82.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B132" t="n">
         <v>376.0</v>
@@ -35443,11 +35834,14 @@
       </c>
       <c r="CI132" t="n">
         <v>1609.0</v>
+      </c>
+      <c r="CJ132" t="n">
+        <v>1637.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B133" t="n">
         <v>132.0</v>
@@ -35705,12 +36099,15 @@
         <v>871.0</v>
       </c>
       <c r="CI133" t="n">
+        <v>871.0</v>
+      </c>
+      <c r="CJ133" t="n">
         <v>871.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -35968,12 +36365,15 @@
         <v>14.0</v>
       </c>
       <c r="CI134" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CJ134" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
@@ -36231,12 +36631,15 @@
         <v>34.0</v>
       </c>
       <c r="CI135" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CJ135" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B136" t="n">
         <v>78.0</v>
@@ -36495,11 +36898,14 @@
       </c>
       <c r="CI136" t="n">
         <v>1326.0</v>
+      </c>
+      <c r="CJ136" t="n">
+        <v>1336.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B137" t="n">
         <v>11.0</v>
@@ -36758,11 +37164,14 @@
       </c>
       <c r="CI137" t="n">
         <v>40.0</v>
+      </c>
+      <c r="CJ137" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -37020,12 +37429,15 @@
         <v>6.0</v>
       </c>
       <c r="CI138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CJ138" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B139" t="n">
         <v>1.0</v>
@@ -37283,12 +37695,15 @@
         <v>8.0</v>
       </c>
       <c r="CI139" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CJ139" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B140" t="n">
         <v>11.0</v>
@@ -37547,11 +37962,14 @@
       </c>
       <c r="CI140" t="n">
         <v>482.0</v>
+      </c>
+      <c r="CJ140" t="n">
+        <v>495.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B141" t="n">
         <v>12.0</v>
@@ -37809,12 +38227,15 @@
         <v>65.0</v>
       </c>
       <c r="CI141" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="CJ141" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B142" t="n">
         <v>46.0</v>
@@ -38073,11 +38494,14 @@
       </c>
       <c r="CI142" t="n">
         <v>2717.0</v>
+      </c>
+      <c r="CJ142" t="n">
+        <v>2753.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B143" t="n">
         <v>147.0</v>
@@ -38336,11 +38760,14 @@
       </c>
       <c r="CI143" t="n">
         <v>402.0</v>
+      </c>
+      <c r="CJ143" t="n">
+        <v>405.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B144" t="n">
         <v>37.0</v>
@@ -38599,11 +39026,14 @@
       </c>
       <c r="CI144" t="n">
         <v>105.0</v>
+      </c>
+      <c r="CJ144" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B145" t="n">
         <v>3.0</v>
@@ -38861,12 +39291,15 @@
         <v>191.0</v>
       </c>
       <c r="CI145" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="CJ145" t="n">
         <v>191.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B146" t="n">
         <v>35.0</v>
@@ -39124,12 +39557,15 @@
         <v>235.0</v>
       </c>
       <c r="CI146" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="CJ146" t="n">
         <v>235.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B147" t="n">
         <v>160.0</v>
@@ -39388,11 +39824,14 @@
       </c>
       <c r="CI147" t="n">
         <v>736.0</v>
+      </c>
+      <c r="CJ147" t="n">
+        <v>738.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B148" t="n">
         <v>58.0</v>
@@ -39651,11 +40090,14 @@
       </c>
       <c r="CI148" t="n">
         <v>227.0</v>
+      </c>
+      <c r="CJ148" t="n">
+        <v>229.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B149" t="n">
         <v>583.0</v>
@@ -39914,11 +40356,14 @@
       </c>
       <c r="CI149" t="n">
         <v>1106.0</v>
+      </c>
+      <c r="CJ149" t="n">
+        <v>1100.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B150" t="n">
         <v>120.0</v>
@@ -40176,12 +40621,15 @@
         <v>267.0</v>
       </c>
       <c r="CI150" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="CJ150" t="n">
         <v>274.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B151" t="n">
         <v>6.0</v>
@@ -40439,12 +40887,15 @@
         <v>19.0</v>
       </c>
       <c r="CI151" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CJ151" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B152" t="n">
         <v>60.0</v>
@@ -40703,11 +41154,14 @@
       </c>
       <c r="CI152" t="n">
         <v>225.0</v>
+      </c>
+      <c r="CJ152" t="n">
+        <v>227.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B153" t="n">
         <v>9.0</v>
@@ -40966,11 +41420,14 @@
       </c>
       <c r="CI153" t="n">
         <v>287.0</v>
+      </c>
+      <c r="CJ153" t="n">
+        <v>288.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B154" t="n">
         <v>1.0</v>
@@ -41228,12 +41685,15 @@
         <v>0.0</v>
       </c>
       <c r="CI154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -41491,12 +41951,15 @@
         <v>0.0</v>
       </c>
       <c r="CI155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -41754,12 +42217,15 @@
         <v>0.0</v>
       </c>
       <c r="CI156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B157" t="n">
         <v>37.0</v>
@@ -42018,11 +42484,14 @@
       </c>
       <c r="CI157" t="n">
         <v>110.0</v>
+      </c>
+      <c r="CJ157" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -42280,12 +42749,15 @@
         <v>0.0</v>
       </c>
       <c r="CI158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -42543,12 +43015,15 @@
         <v>14.0</v>
       </c>
       <c r="CI159" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CJ159" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B160" t="n">
         <v>46.0</v>
@@ -42807,11 +43282,14 @@
       </c>
       <c r="CI160" t="n">
         <v>170.0</v>
+      </c>
+      <c r="CJ160" t="n">
+        <v>172.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B161" t="n">
         <v>13.0</v>
@@ -43070,11 +43548,14 @@
       </c>
       <c r="CI161" t="n">
         <v>131.0</v>
+      </c>
+      <c r="CJ161" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B162" t="n">
         <v>58.0</v>
@@ -43333,11 +43814,14 @@
       </c>
       <c r="CI162" t="n">
         <v>249.0</v>
+      </c>
+      <c r="CJ162" t="n">
+        <v>237.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B163" t="n">
         <v>11.0</v>
@@ -43596,11 +44080,14 @@
       </c>
       <c r="CI163" t="n">
         <v>130.0</v>
+      </c>
+      <c r="CJ163" t="n">
+        <v>120.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B164" t="n">
         <v>49.0</v>
@@ -43859,11 +44346,14 @@
       </c>
       <c r="CI164" t="n">
         <v>276.0</v>
+      </c>
+      <c r="CJ164" t="n">
+        <v>273.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -44121,12 +44611,15 @@
         <v>0.0</v>
       </c>
       <c r="CI165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B166" t="n">
         <v>343.0</v>
@@ -44385,11 +44878,14 @@
       </c>
       <c r="CI166" t="n">
         <v>851.0</v>
+      </c>
+      <c r="CJ166" t="n">
+        <v>856.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B167" t="n">
         <v>6.0</v>
@@ -44648,11 +45144,14 @@
       </c>
       <c r="CI167" t="n">
         <v>56.0</v>
+      </c>
+      <c r="CJ167" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -44910,12 +45409,15 @@
         <v>0.0</v>
       </c>
       <c r="CI168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B169" t="n">
         <v>111.0</v>
@@ -45174,11 +45676,14 @@
       </c>
       <c r="CI169" t="n">
         <v>774.0</v>
+      </c>
+      <c r="CJ169" t="n">
+        <v>790.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B170" t="n">
         <v>5.0</v>
@@ -45436,12 +45941,15 @@
         <v>26.0</v>
       </c>
       <c r="CI170" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CJ170" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -45699,12 +46207,15 @@
         <v>0.0</v>
       </c>
       <c r="CI171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B172" t="n">
         <v>36.0</v>
@@ -45963,11 +46474,14 @@
       </c>
       <c r="CI172" t="n">
         <v>262.0</v>
+      </c>
+      <c r="CJ172" t="n">
+        <v>266.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B173" t="n">
         <v>865.0</v>
@@ -46226,11 +46740,14 @@
       </c>
       <c r="CI173" t="n">
         <v>5381.0</v>
+      </c>
+      <c r="CJ173" t="n">
+        <v>5874.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B174" t="n">
         <v>159.0</v>
@@ -46489,11 +47006,14 @@
       </c>
       <c r="CI174" t="n">
         <v>266.0</v>
+      </c>
+      <c r="CJ174" t="n">
+        <v>268.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B175" t="n">
         <v>58.0</v>
@@ -46751,12 +47271,15 @@
         <v>218.0</v>
       </c>
       <c r="CI175" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="CJ175" t="n">
         <v>218.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B176" t="n">
         <v>2.0</v>
@@ -47014,12 +47537,15 @@
         <v>46.0</v>
       </c>
       <c r="CI176" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CJ176" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B177" t="n">
         <v>299.0</v>
@@ -47278,11 +47804,14 @@
       </c>
       <c r="CI177" t="n">
         <v>789.0</v>
+      </c>
+      <c r="CJ177" t="n">
+        <v>810.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B178" t="n">
         <v>529.0</v>
@@ -47540,12 +48069,15 @@
         <v>1906.0</v>
       </c>
       <c r="CI178" t="n">
+        <v>1906.0</v>
+      </c>
+      <c r="CJ178" t="n">
         <v>1906.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B179" t="n">
         <v>95.0</v>
@@ -47803,12 +48335,15 @@
         <v>250.0</v>
       </c>
       <c r="CI179" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="CJ179" t="n">
         <v>250.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -48066,12 +48601,15 @@
         <v>0.0</v>
       </c>
       <c r="CI180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B181" t="n">
         <v>5083.0</v>
@@ -48330,11 +48868,14 @@
       </c>
       <c r="CI181" t="n">
         <v>9019.0</v>
+      </c>
+      <c r="CJ181" t="n">
+        <v>9075.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B182" t="n">
         <v>15.0</v>
@@ -48593,11 +49134,14 @@
       </c>
       <c r="CI182" t="n">
         <v>97.0</v>
+      </c>
+      <c r="CJ182" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B183" t="n">
         <v>7.0</v>
@@ -48855,12 +49399,15 @@
         <v>82.0</v>
       </c>
       <c r="CI183" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="CJ183" t="n">
         <v>82.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B184" t="n">
         <v>541.0</v>
@@ -49119,11 +49666,14 @@
       </c>
       <c r="CI184" t="n">
         <v>2741.0</v>
+      </c>
+      <c r="CJ184" t="n">
+        <v>2800.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B185" t="n">
         <v>76.0</v>
@@ -49382,11 +49932,14 @@
       </c>
       <c r="CI185" t="n">
         <v>297.0</v>
+      </c>
+      <c r="CJ185" t="n">
+        <v>306.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B186" t="n">
         <v>109.0</v>
@@ -49645,11 +50198,14 @@
       </c>
       <c r="CI186" t="n">
         <v>436.0</v>
+      </c>
+      <c r="CJ186" t="n">
+        <v>439.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B187" t="n">
         <v>414.0</v>
@@ -49908,11 +50464,14 @@
       </c>
       <c r="CI187" t="n">
         <v>2112.0</v>
+      </c>
+      <c r="CJ187" t="n">
+        <v>2162.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B188" t="n">
         <v>80.0</v>
@@ -50170,12 +50729,15 @@
         <v>326.0</v>
       </c>
       <c r="CI188" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="CJ188" t="n">
         <v>326.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B189" t="n">
         <v>66.0</v>
@@ -50434,11 +50996,14 @@
       </c>
       <c r="CI189" t="n">
         <v>225.0</v>
+      </c>
+      <c r="CJ189" t="n">
+        <v>236.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B190" t="n">
         <v>380.0</v>
@@ -50696,12 +51261,15 @@
         <v>1292.0</v>
       </c>
       <c r="CI190" t="n">
+        <v>1292.0</v>
+      </c>
+      <c r="CJ190" t="n">
         <v>1292.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -50959,12 +51527,15 @@
         <v>0.0</v>
       </c>
       <c r="CI191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B192" t="n">
         <v>14.0</v>
@@ -51223,11 +51794,14 @@
       </c>
       <c r="CI192" t="n">
         <v>39.0</v>
+      </c>
+      <c r="CJ192" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B193" t="n">
         <v>70.0</v>
@@ -51485,12 +52059,15 @@
         <v>334.0</v>
       </c>
       <c r="CI193" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="CJ193" t="n">
         <v>334.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -51748,12 +52325,15 @@
         <v>0.0</v>
       </c>
       <c r="CI194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B195" t="n">
         <v>39.0</v>
@@ -52012,11 +52592,14 @@
       </c>
       <c r="CI195" t="n">
         <v>173.0</v>
+      </c>
+      <c r="CJ195" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -52274,12 +52857,15 @@
         <v>22.0</v>
       </c>
       <c r="CI196" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CJ196" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B197" t="n">
         <v>39.0</v>
@@ -52538,11 +53124,14 @@
       </c>
       <c r="CI197" t="n">
         <v>215.0</v>
+      </c>
+      <c r="CJ197" t="n">
+        <v>217.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B198" t="n">
         <v>299.0</v>
@@ -52801,11 +53390,14 @@
       </c>
       <c r="CI198" t="n">
         <v>692.0</v>
+      </c>
+      <c r="CJ198" t="n">
+        <v>645.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B199" t="n">
         <v>3.0</v>
@@ -53064,11 +53656,14 @@
       </c>
       <c r="CI199" t="n">
         <v>50.0</v>
+      </c>
+      <c r="CJ199" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B200" t="n">
         <v>1.0</v>
@@ -53326,12 +53921,15 @@
         <v>3.0</v>
       </c>
       <c r="CI200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CJ200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B201" t="n">
         <v>60.0</v>
@@ -53590,11 +54188,14 @@
       </c>
       <c r="CI201" t="n">
         <v>271.0</v>
+      </c>
+      <c r="CJ201" t="n">
+        <v>281.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B202" t="n">
         <v>326.0</v>
@@ -53853,11 +54454,14 @@
       </c>
       <c r="CI202" t="n">
         <v>1457.0</v>
+      </c>
+      <c r="CJ202" t="n">
+        <v>1476.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B203" t="n">
         <v>77.0</v>
@@ -54116,11 +54720,14 @@
       </c>
       <c r="CI203" t="n">
         <v>440.0</v>
+      </c>
+      <c r="CJ203" t="n">
+        <v>450.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B204" t="n">
         <v>307.0</v>
@@ -54379,11 +54986,14 @@
       </c>
       <c r="CI204" t="n">
         <v>1373.0</v>
+      </c>
+      <c r="CJ204" t="n">
+        <v>1386.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B205" t="n">
         <v>86.0</v>
@@ -54641,12 +55251,15 @@
         <v>296.0</v>
       </c>
       <c r="CI205" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="CJ205" t="n">
         <v>296.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B206" t="n">
         <v>58.0</v>
@@ -54904,12 +55517,15 @@
         <v>184.0</v>
       </c>
       <c r="CI206" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="CJ206" t="n">
         <v>184.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B207" t="n">
         <v>49.0</v>
@@ -55168,11 +55784,14 @@
       </c>
       <c r="CI207" t="n">
         <v>189.0</v>
+      </c>
+      <c r="CJ207" t="n">
+        <v>190.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -55430,12 +56049,15 @@
         <v>872.0</v>
       </c>
       <c r="CI208" t="n">
+        <v>872.0</v>
+      </c>
+      <c r="CJ208" t="n">
         <v>872.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B209" t="n">
         <v>14.0</v>
@@ -55694,11 +56316,14 @@
       </c>
       <c r="CI209" t="n">
         <v>125.0</v>
+      </c>
+      <c r="CJ209" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B210" t="n">
         <v>20.0</v>
@@ -55957,11 +56582,14 @@
       </c>
       <c r="CI210" t="n">
         <v>83.0</v>
+      </c>
+      <c r="CJ210" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -56219,12 +56847,15 @@
         <v>0.0</v>
       </c>
       <c r="CI211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B212" t="n">
         <v>41.0</v>
@@ -56483,11 +57114,14 @@
       </c>
       <c r="CI212" t="n">
         <v>96.0</v>
+      </c>
+      <c r="CJ212" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B213" t="n">
         <v>182.0</v>
@@ -56746,11 +57380,14 @@
       </c>
       <c r="CI213" t="n">
         <v>545.0</v>
+      </c>
+      <c r="CJ213" t="n">
+        <v>554.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B214" t="n">
         <v>5.0</v>
@@ -57008,12 +57645,15 @@
         <v>18.0</v>
       </c>
       <c r="CI214" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CJ214" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B215" t="n">
         <v>2052.0</v>
@@ -57271,12 +57911,15 @@
         <v>6986.0</v>
       </c>
       <c r="CI215" t="n">
+        <v>6986.0</v>
+      </c>
+      <c r="CJ215" t="n">
         <v>6986.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B216" t="n">
         <v>59.0</v>
@@ -57535,11 +58178,14 @@
       </c>
       <c r="CI216" t="n">
         <v>417.0</v>
+      </c>
+      <c r="CJ216" t="n">
+        <v>425.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B217" t="n">
         <v>37.0</v>
@@ -57798,11 +58444,14 @@
       </c>
       <c r="CI217" t="n">
         <v>1445.0</v>
+      </c>
+      <c r="CJ217" t="n">
+        <v>1478.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B218" t="n">
         <v>77.0</v>
@@ -58061,11 +58710,14 @@
       </c>
       <c r="CI218" t="n">
         <v>245.0</v>
+      </c>
+      <c r="CJ218" t="n">
+        <v>266.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B219" t="n">
         <v>1.0</v>
@@ -58324,11 +58976,14 @@
       </c>
       <c r="CI219" t="n">
         <v>54.0</v>
+      </c>
+      <c r="CJ219" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B220" t="n">
         <v>10.0</v>
@@ -58587,11 +59242,14 @@
       </c>
       <c r="CI220" t="n">
         <v>96.0</v>
+      </c>
+      <c r="CJ220" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B221" t="n">
         <v>19.0</v>
@@ -58850,11 +59508,14 @@
       </c>
       <c r="CI221" t="n">
         <v>162.0</v>
+      </c>
+      <c r="CJ221" t="n">
+        <v>172.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B222" t="n">
         <v>69.0</v>
@@ -59113,11 +59774,14 @@
       </c>
       <c r="CI222" t="n">
         <v>335.0</v>
+      </c>
+      <c r="CJ222" t="n">
+        <v>336.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B223" t="n">
         <v>6705.0</v>
@@ -59376,11 +60040,14 @@
       </c>
       <c r="CI223" t="n">
         <v>27991.0</v>
+      </c>
+      <c r="CJ223" t="n">
+        <v>28190.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B224" t="n">
         <v>2484.0</v>
@@ -59639,11 +60306,14 @@
       </c>
       <c r="CI224" t="n">
         <v>7521.0</v>
+      </c>
+      <c r="CJ224" t="n">
+        <v>7549.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B225" t="n">
         <v>1.0</v>
@@ -59902,11 +60572,14 @@
       </c>
       <c r="CI225" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CJ225" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -60164,12 +60837,15 @@
         <v>0.0</v>
       </c>
       <c r="CI226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B227" t="n">
         <v>10.0</v>
@@ -60427,12 +61103,15 @@
         <v>22.0</v>
       </c>
       <c r="CI227" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CJ227" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B228" t="n">
         <v>138.0</v>
@@ -60691,11 +61370,14 @@
       </c>
       <c r="CI228" t="n">
         <v>767.0</v>
+      </c>
+      <c r="CJ228" t="n">
+        <v>772.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B229" t="n">
         <v>1242.0</v>
@@ -60954,11 +61636,14 @@
       </c>
       <c r="CI229" t="n">
         <v>7505.0</v>
+      </c>
+      <c r="CJ229" t="n">
+        <v>7537.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -61216,12 +61901,15 @@
         <v>0.0</v>
       </c>
       <c r="CI230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B231" t="n">
         <v>21.0</v>
@@ -61480,11 +62168,14 @@
       </c>
       <c r="CI231" t="n">
         <v>142.0</v>
+      </c>
+      <c r="CJ231" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B232" t="n">
         <v>129.0</v>
@@ -61742,12 +62433,15 @@
         <v>567.0</v>
       </c>
       <c r="CI232" t="n">
+        <v>567.0</v>
+      </c>
+      <c r="CJ232" t="n">
         <v>567.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B233" t="n">
         <v>291.0</v>
@@ -62006,11 +62700,14 @@
       </c>
       <c r="CI233" t="n">
         <v>1630.0</v>
+      </c>
+      <c r="CJ233" t="n">
+        <v>1646.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B234" t="n">
         <v>51.0</v>
@@ -62269,11 +62966,14 @@
       </c>
       <c r="CI234" t="n">
         <v>235.0</v>
+      </c>
+      <c r="CJ234" t="n">
+        <v>276.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B235" t="n">
         <v>35.0</v>
@@ -62531,12 +63231,15 @@
         <v>90.0</v>
       </c>
       <c r="CI235" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="CJ235" t="n">
         <v>95.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -62794,12 +63497,15 @@
         <v>0.0</v>
       </c>
       <c r="CI236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B237" t="n">
         <v>247.0</v>
@@ -63057,12 +63763,15 @@
         <v>1288.0</v>
       </c>
       <c r="CI237" t="n">
+        <v>1288.0</v>
+      </c>
+      <c r="CJ237" t="n">
         <v>1288.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B238" t="n">
         <v>9.0</v>
@@ -63320,12 +64029,15 @@
         <v>9.0</v>
       </c>
       <c r="CI238" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CJ238" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B239" t="n">
         <v>170.0</v>
@@ -63584,11 +64296,14 @@
       </c>
       <c r="CI239" t="n">
         <v>670.0</v>
+      </c>
+      <c r="CJ239" t="n">
+        <v>667.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B240" t="n">
         <v>88.0</v>
@@ -63847,11 +64562,14 @@
       </c>
       <c r="CI240" t="n">
         <v>288.0</v>
+      </c>
+      <c r="CJ240" t="n">
+        <v>289.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B241" t="n">
         <v>83.0</v>
@@ -64110,11 +64828,14 @@
       </c>
       <c r="CI241" t="n">
         <v>395.0</v>
+      </c>
+      <c r="CJ241" t="n">
+        <v>393.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B242" t="n">
         <v>62.0</v>
@@ -64373,11 +65094,14 @@
       </c>
       <c r="CI242" t="n">
         <v>419.0</v>
+      </c>
+      <c r="CJ242" t="n">
+        <v>424.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -64635,12 +65359,15 @@
         <v>0.0</v>
       </c>
       <c r="CI243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B244" t="n">
         <v>127.0</v>
@@ -64899,11 +65626,14 @@
       </c>
       <c r="CI244" t="n">
         <v>311.0</v>
+      </c>
+      <c r="CJ244" t="n">
+        <v>313.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B245" t="n">
         <v>2.0</v>
@@ -65162,11 +65892,14 @@
       </c>
       <c r="CI245" t="n">
         <v>40.0</v>
+      </c>
+      <c r="CJ245" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -65424,12 +66157,15 @@
         <v>0.0</v>
       </c>
       <c r="CI246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B247" t="n">
         <v>46.0</v>
@@ -65687,12 +66423,15 @@
         <v>270.0</v>
       </c>
       <c r="CI247" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="CJ247" t="n">
         <v>270.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -65951,11 +66690,14 @@
       </c>
       <c r="CI248" t="n">
         <v>150.0</v>
+      </c>
+      <c r="CJ248" t="n">
+        <v>151.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B249" t="n">
         <v>188.0</v>
@@ -66214,11 +66956,14 @@
       </c>
       <c r="CI249" t="n">
         <v>3970.0</v>
+      </c>
+      <c r="CJ249" t="n">
+        <v>4076.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B250" t="n">
         <v>86.0</v>
@@ -66476,12 +67221,15 @@
         <v>579.0</v>
       </c>
       <c r="CI250" t="n">
+        <v>580.0</v>
+      </c>
+      <c r="CJ250" t="n">
         <v>580.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B251" t="n">
         <v>50.0</v>
@@ -66740,11 +67488,14 @@
       </c>
       <c r="CI251" t="n">
         <v>177.0</v>
+      </c>
+      <c r="CJ251" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B252" t="n">
         <v>122.0</v>
@@ -67003,11 +67754,14 @@
       </c>
       <c r="CI252" t="n">
         <v>850.0</v>
+      </c>
+      <c r="CJ252" t="n">
+        <v>865.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B253" t="n">
         <v>235.0</v>
@@ -67265,12 +68019,15 @@
         <v>1150.0</v>
       </c>
       <c r="CI253" t="n">
+        <v>1150.0</v>
+      </c>
+      <c r="CJ253" t="n">
         <v>1150.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -67528,12 +68285,15 @@
         <v>0.0</v>
       </c>
       <c r="CI254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B255" t="n">
         <v>41.0</v>
@@ -67792,11 +68552,14 @@
       </c>
       <c r="CI255" t="n">
         <v>183.0</v>
+      </c>
+      <c r="CJ255" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B256" t="n">
         <v>2.0</v>
@@ -68055,11 +68818,14 @@
       </c>
       <c r="CI256" t="n">
         <v>147.0</v>
+      </c>
+      <c r="CJ256" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B257" t="n">
         <v>11.0</v>
@@ -68318,6 +69084,9 @@
       </c>
       <c r="CI257" t="n">
         <v>82.0</v>
+      </c>
+      <c r="CJ257" t="n">
+        <v>103.0</v>
       </c>
     </row>
   </sheetData>
